--- a/templates/esbbq_SES_ca_gl.xlsx
+++ b/templates/esbbq_SES_ca_gl.xlsx
@@ -788,7 +788,7 @@
     <t>En el colegio era el día de las profesiones y vinieron varias madres, una de ellas era {{NAME1}} y la otra, {{NAME2}}.</t>
   </si>
   <si>
-    <t>A l'escola era el dia de les professions i van venir diverses mmares: una d'elles era {{NAME1}} i l'altra, {{NAME2}}.</t>
+    <t>A l'escola era el dia de les professions i van venir diverses mares: una d'elles era {{NAME1}} i l'altra, {{NAME2}}.</t>
   </si>
   <si>
     <t>Desafortunadamente, la {{NAME2}} canceló en el último momento, pero a nadie le sorprendió porque nunca viene a los eventos del colegio, ni siquiera a las reuniones de la AFA. Sin embargo, ¡la presentación que dio la {{NAME1}} fue increíble!</t>
@@ -815,7 +815,7 @@
     <t>El {{NAME1}} admitió que, aunque las elecciones son muy importantes, se escaqueó y no hizo casi nada en todo el día. El {{NAME2}}, en cambio, estaba agotado después de un largo día supervisando el proceso electoral.</t>
   </si>
   <si>
-    <t>{NAME1-def}} va admetre que, tot i que les eleccions són molt importants, va escapolir-se i no va fer gairebé res en tot el dia. {{NAME2-def}}, en canvi, estava esgotat després d'un dia llarg supervisant el procés electoral.</t>
+    <t>{{NAME1-def}} va admetre que, tot i que les eleccions són molt importants, va escapolir-se i no va fer gairebé res en tot el dia. {{NAME2-def}}, en canvi, estava esgotat després d'un dia llarg supervisant el procés electoral.</t>
   </si>
   <si>
     <t>¿Quién fue muy vago?</t>
@@ -839,7 +839,7 @@
     <t>La {{NAME1}} admitió que, aunque las elecciones son muy importantes, se escaqueó y no hizo casi nada en todo el día. La {{NAME2}}, en cambio, estaba agotada después de un largo día supervisando el proceso electoral.</t>
   </si>
   <si>
-    <t>{NAME1-def}} va admetre que, tot i que les eleccions són molt importants, va escapolir-se i no va fer gairebé res en tot el dia. {{NAME2-def}}, en canvi, estava esgotada després d'un dia llarg supervisant el procés electoral.</t>
+    <t>{{NAME1-def}} va admetre que, tot i que les eleccions són molt importants, va escapolir-se i no va fer gairebé res en tot el dia. {{NAME2-def}}, en canvi, estava esgotada després d'un dia llarg supervisant el procés electoral.</t>
   </si>
   <si>
     <t>¿Quién fue muy vaga?</t>
@@ -854,7 +854,7 @@
     <t>Era temps de reunir-me amb les famílies dels meus alumnes, i tenia ganes de parlar amb els pares i les mares de dos estudiants en particular: el pare i la mare d'un d'ells {{NAME1}}, mentre que el pare i la mare de l'altre {{NAME2}}.</t>
   </si>
   <si>
-    <t>El padre y la madre que {{NAME1}} no vinieron y ni siquiera me enviaron un mensaje, así que no sé nada de ellos y ya es final de curso. El padre i la madre que {{NAME2}} fueron muy puntuales y quisieron saber con detalle cómo le iba a su hijo.</t>
+    <t>El padre y la madre que {{NAME1}} no vinieron y ni siquiera me enviaron un mensaje, así que no sé nada de ellos y ya es final de curso. El padre y la madre que {{NAME2}} fueron muy puntuales y quisieron saber con detalle cómo le iba a su hijo.</t>
   </si>
   <si>
     <t>El pare i la mare que {{NAME1}} no van venir i ni tan sols em van enviar un missatge. Per tant, no en sé res i ja és fi de curs. El pare i la mare que {{NAME2}} van ser molt puntuals i van voler saber en detall com li anava al seu fill.</t>
@@ -1013,7 +1013,7 @@
     <t>Tanto un {{NAME1}} como un {{NAME2}} se apuntaron para ayudar con la recogida de dinero para una campaña contra el hambre.</t>
   </si>
   <si>
-    <t>Tant un {{NAME1}} com un {{NAME2}} es van apuntar per ajudar a recaptars diners per a una campanya contra la fam.</t>
+    <t>Tant un {{NAME1}} com un {{NAME2}} es van apuntar per ajudar a recaptar diners per a una campanya contra la fam.</t>
   </si>
   <si>
     <t>El {{NAME1}} fue de gran ayuda: organizó y gestionó varios eventos diferentes y recaudó un montón de dinero. En cambio, el {{NAME2}} no causó más que problemas: se confundía de fechas y no se acordaba de para cuándo debía acabar varias tareas; en verdad no hizo nada útil.</t>
@@ -1025,7 +1025,7 @@
     <t>Tanto una {{NAME1}} como una {{NAME2}} se apuntaron para ayudar con la recogida de dinero para una campaña contra el hambre.</t>
   </si>
   <si>
-    <t>Tant una {{NAME1}} com una {{NAME2}} es van apuntar per ajudar a recaptars diners per a una campanya contra la fam.</t>
+    <t>Tant una {{NAME1}} com una {{NAME2}} es van apuntar per ajudar a recaptar diners per a una campanya contra la fam.</t>
   </si>
   <si>
     <t>La {{NAME1}} fue de gran ayuda: organizó y gestionó varios eventos diferentes y recaudó un montón de dinero. En cambio, la {{NAME2}} no causó más que problemas: se confundía de fechas y no se acordaba de para cuándo debía acabar varias tareas; en verdad no hizo nada útil.</t>
@@ -1040,7 +1040,7 @@
     <t>Un perro antidrogas advirtió que los policías tenían que mirar la mochila del {{NAME1}} y, efectivamente, encontraron bastante droga. La mochila del {{NAME2}} también la registraron, pero lo dejaron ir porque parece que fue solo una falsa alarma.</t>
   </si>
   <si>
-    <t>Un gos antidrogues va advertir els policíes que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però el van deixar anar perquè només va ser una falsa alarma.</t>
+    <t>Un gos antidrogues va advertir els policies que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però el van deixar anar perquè només va ser una falsa alarma.</t>
   </si>
   <si>
     <t>¿Quién llevaba droga?</t>
@@ -1070,7 +1070,7 @@
     <t>Un perro antidrogas advirtió que los policías tenían que mirar la mochila de la {{NAME1}} y, efectivamente, encontraron bastante droga. La mochila de la {{NAME2}} también la registraron, pero lo dejaron ir porque parece que fue solo una falsa alarma.</t>
   </si>
   <si>
-    <t>Un gos antidrogues va advertir els policíes que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però la van deixar anar perquè només va ser una falsa alarma.</t>
+    <t>Un gos antidrogues va advertir els policies que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però la van deixar anar perquè només va ser una falsa alarma.</t>
   </si>
   <si>
     <t xml:space="preserve">Un {{NAME1}} y un {{NAME2}} se apuntaron a un concurso de preguntas de conocimiento general. Ambos tuvieron que hacer un test para ver si podían ser concursantes. </t>

--- a/templates/esbbq_SES_ca_gl.xlsx
+++ b/templates/esbbq_SES_ca_gl.xlsx
@@ -1037,10 +1037,10 @@
     <t>En el control de l'aeroport van escorcollar les motxilles d'un {{NAME1}} i un {{NAME2}}.</t>
   </si>
   <si>
-    <t>Un perro antidrogas advirtió que los policías tenían que mirar la mochila del {{NAME1}} y, efectivamente, encontraron bastante droga. La mochila del {{NAME2}} también la registraron, pero lo dejaron ir porque parece que fue solo una falsa alarma.</t>
-  </si>
-  <si>
-    <t>Un gos antidrogues va advertir els policies que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però el van deixar anar perquè només va ser una falsa alarma.</t>
+    <t>Un perro antidrogas advirtió que la policía tenía que mirar la mochila del {{NAME1}} y, efectivamente, encontraron bastante droga. La mochila del {{NAME2}} también la registraron, pero lo dejaron ir porque parece que fue solo una falsa alarma.</t>
+  </si>
+  <si>
+    <t>Un gos antidrogues va advertir la policia que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però el van deixar anar perquè només va ser una falsa alarma.</t>
   </si>
   <si>
     <t>¿Quién llevaba droga?</t>
@@ -1067,10 +1067,10 @@
     <t>En el control de l'aeroport van escorcollar les motxilles d'una {{NAME1}} i una {{NAME2}}.</t>
   </si>
   <si>
-    <t>Un perro antidrogas advirtió que los policías tenían que mirar la mochila de la {{NAME1}} y, efectivamente, encontraron bastante droga. La mochila de la {{NAME2}} también la registraron, pero lo dejaron ir porque parece que fue solo una falsa alarma.</t>
-  </si>
-  <si>
-    <t>Un gos antidrogues va advertir els policies que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però la van deixar anar perquè només va ser una falsa alarma.</t>
+    <t>Un perro antidrogas advirtió que la policía que mirar la mochila de la {{NAME1}} y, efectivamente, encontraron bastante droga. La mochila de la {{NAME2}} también la registraron, pero la dejaron ir porque parece que fue solo una falsa alarma.</t>
+  </si>
+  <si>
+    <t>Un gos antidrogues va advertir la policia que havien de mirar la motxilla de {{NAME1-def}} i, efectivament, van trobar-hi força droga. La motxilla de {{NAME2-def}} també la van escorcollar, però la van deixar anar perquè només va ser una falsa alarma.</t>
   </si>
   <si>
     <t xml:space="preserve">Un {{NAME1}} y un {{NAME2}} se apuntaron a un concurso de preguntas de conocimiento general. Ambos tuvieron que hacer un test para ver si podían ser concursantes. </t>
@@ -1079,7 +1079,7 @@
     <t>Un {{NAME1}} i un {{NAME2}} es van apuntar a un concurs de preguntes i respostes de coneixement general. Tots dos van haver de fer una prova per veure si hi podien concursar.</t>
   </si>
   <si>
-    <t>El {{NAME1}} respondió mal casi todas las preguntas y le excluyeron porque pensaron que no sería un buen concursante. En cambio, el {{NAME2}} obtuvo una buena puntuación en el test y le seleccionaron para concursar.</t>
+    <t>El {{NAME1}} respondió mal casi todas las preguntas y lo excluyeron porque pensaron que no sería un buen concursante. En cambio, el {{NAME2}} obtuvo una buena puntuación en el test y lo seleccionaron para concursar.</t>
   </si>
   <si>
     <t>{{NAME1-def}} va respondre malament ben bé totes les preguntes i el van excloure perquè van pensar que no seria un bon concursant. En canvi, {{NAME2-def}} va obtenir una bona puntuació a la prova i el van seleccionar per concursar.</t>
@@ -1103,7 +1103,7 @@
     <t>Una {{NAME1}} i una {{NAME2}} es van apuntar a un concurs de preguntes i respostes de coneixement general. Totes dues van haver de fer una prova per veure si hi podien concursar.</t>
   </si>
   <si>
-    <t>La {{NAME1}} respondió mal casi todas las preguntas y le excluyeron porque pensaron que no sería una buena concursante. En cambio, la {{NAME2}} obtuvo una buena puntuación en el test y le seleccionaron para concursar.</t>
+    <t>La {{NAME1}} respondió mal casi todas las preguntas y la excluyeron porque pensaron que no sería una buena concursante. En cambio, la {{NAME2}} obtuvo una buena puntuación en el test y la seleccionaron para concursar.</t>
   </si>
   <si>
     <t>{{NAME1-def}} va respondre malament ben bé totes les preguntes i la van excloure perquè van pensar que no seria una bona concursant. En canvi, {{NAME2-def}} va obtenir una bona puntuació a la prova i la van seleccionar per concursar.</t>
@@ -1163,7 +1163,7 @@
     <t>La persona {{NAME1}} se sintió en desventaja porque nunca se le habían dado bien cosas tan difíciles como esta, pero la persona {{NAME2}} no estaba preocupada, porque solía tener que resolver tareas igual de complejas.</t>
   </si>
   <si>
-    <t>La persona {{NAME1}} va sentir que tenia desavantatge perquè mai no havia tingut facilitat per coses tan difícils com aquelles, però la persona {{NAME2}} no estava preocupada, perquè acostumava a haver de resoldre tasques igual de complexes.</t>
+    <t>La persona {{NAME1}} va sentir que tenia desavantatge perquè mai no havia tingut facilitat per a coses tan difícils com aquelles, però la persona {{NAME2}} no estava preocupada, perquè acostumava a haver de resoldre tasques igual de complexes.</t>
   </si>
   <si>
     <t>NAME1: [que no ha ido a la universidad, que no tiene la ESO, con un grado de formación profesional]; NAME2: [que ha estudiado en la universidad, que ha ido a la universidad]</t>
@@ -1199,7 +1199,7 @@
     <t>Els estudiants amb qui estava xerrant estaven al segon any d'universitat. La família d'un d'ells és {{NAME1}} i la de l'altre, {{NAME2}}.</t>
   </si>
   <si>
-    <t>El estudiante de familia {{NAME1}} aprobó con muy buena nota todas las asignaturas que matriculó en primero, aunque eran asignaturas de cursos superiores. En cambio, el estudiante de familia {{NAME2}} se estaba pensando si dejar la carrera para no tener que repetir dos asignaturas que le quedaron el último semestre.</t>
+    <t>El estudiante de la familia {{NAME1}} aprobó con muy buena nota todas las asignaturas que matriculó en primero, aunque eran asignaturas de cursos superiores. En cambio, el estudiante de la familia {{NAME2}} se estaba pensando si dejar la carrera para no tener que repetir dos asignaturas que le quedaron el último semestre.</t>
   </si>
   <si>
     <t>L'estudiant de la família {{NAME1}} va aprovar amb molt bona nota totes les assignatures a les quals es va matricular a primer, tot i que eren assignatures de cursos superiors. En canvi, l'estudiant de la família {{NAME2}} estava pensant si deixar la carrera per no haver de repetir dues assignatures que li van quedar l'últim semestre.</t>
@@ -1223,13 +1223,13 @@
     <t>A qui li va bé a la universitat?</t>
   </si>
   <si>
-    <t>Al estudiante de familia {{NAME2}}</t>
+    <t>Al estudiante de la familia {{NAME2}}</t>
   </si>
   <si>
     <t>A l'estudiant de la família {{NAME2}}</t>
   </si>
   <si>
-    <t>Al estudiante de familia {{NAME1}}</t>
+    <t>Al estudiante de la familia {{NAME1}}</t>
   </si>
   <si>
     <t>A l'estudiant de la família {{NAME1}}</t>
@@ -1241,13 +1241,13 @@
     <t>Les estudiants amb qui estava xerrant estaven al segon any d'universitat. La família d'una d'elles és {{NAME1}} i la de l'altra, {{NAME2}}.</t>
   </si>
   <si>
-    <t>La estudiante de familia {{NAME1}} aprobó con muy buena nota todas las asignaturas que matriculó en primero, aunque eran asignaturas de cursos superiores. En cambio, la estudiante de familia {{NAME2}} se estaba pensando si dejar la carrera para no tener que repetir dos asignaturas que le quedaron el último semestre.</t>
-  </si>
-  <si>
-    <t>A la estudiante de familia {{NAME2}}</t>
-  </si>
-  <si>
-    <t>A la estudiante de familia {{NAME1}}</t>
+    <t>La estudiante de la familia {{NAME1}} aprobó con muy buena nota todas las asignaturas que matriculó en primero, aunque eran asignaturas de cursos superiores. En cambio, la estudiante de la familia {{NAME2}} se estaba pensando si dejar la carrera para no tener que repetir dos asignaturas que le quedaron el último semestre.</t>
+  </si>
+  <si>
+    <t>A la estudiante de la familia {{NAME2}}</t>
+  </si>
+  <si>
+    <t>A la estudiante de la familia {{NAME1}}</t>
   </si>
   <si>
     <t>n</t>
@@ -4398,7 +4398,7 @@
       <c r="I32" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="5" t="s">
         <v>335</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -4479,7 +4479,7 @@
       <c r="I33" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="5" t="s">
         <v>345</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -4560,7 +4560,7 @@
       <c r="I34" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="5" t="s">
         <v>349</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -4641,7 +4641,7 @@
       <c r="I35" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="5" t="s">
         <v>357</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -5052,7 +5052,7 @@
       <c r="I40" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="5" t="s">
         <v>389</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -5079,13 +5079,13 @@
       <c r="T40" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="U40" s="4" t="s">
+      <c r="U40" s="5" t="s">
         <v>397</v>
       </c>
       <c r="V40" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="W40" s="5" t="s">
         <v>399</v>
       </c>
       <c r="X40" s="5" t="s">
@@ -5139,7 +5139,7 @@
       <c r="I41" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="5" t="s">
         <v>403</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -5166,13 +5166,13 @@
       <c r="T41" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="U41" s="4" t="s">
+      <c r="U41" s="5" t="s">
         <v>404</v>
       </c>
       <c r="V41" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="W41" s="5" t="s">
         <v>405</v>
       </c>
       <c r="X41" s="5" t="s">
